--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
@@ -1027,13 +1027,13 @@
   <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="45.25" customWidth="1"/>
     <col min="3" max="3" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -50,13 +50,55 @@
     <t>序号</t>
   </si>
   <si>
-    <t>解锁类型 1扭蛋机 0生物</t>
+    <t>解锁类型 0生物 1扭蛋机  2研究</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
-    <t>扭蛋机</t>
+    <t>扭蛋-剑与魔法x5</t>
+  </si>
+  <si>
+    <t>扭蛋-剑与魔法x10</t>
+  </si>
+  <si>
+    <t>扭蛋-人族</t>
+  </si>
+  <si>
+    <t>扭蛋-人族x5</t>
+  </si>
+  <si>
+    <t>扭蛋-人族x10</t>
+  </si>
+  <si>
+    <t>扭蛋-不死族</t>
+  </si>
+  <si>
+    <t>扭蛋-不死族x5</t>
+  </si>
+  <si>
+    <t>扭蛋-不死族x10</t>
+  </si>
+  <si>
+    <t>扭蛋-史莱姆</t>
+  </si>
+  <si>
+    <t>扭蛋-史莱姆x5</t>
+  </si>
+  <si>
+    <t>扭蛋-史莱姆x10</t>
+  </si>
+  <si>
+    <t>扭蛋-魅魔</t>
+  </si>
+  <si>
+    <t>扭蛋-魅魔x5</t>
+  </si>
+  <si>
+    <t>扭蛋-魅魔x10</t>
+  </si>
+  <si>
+    <t>阵容上限+1</t>
   </si>
 </sst>
 </file>
@@ -1027,13 +1069,13 @@
   <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="45.25" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1072,7 +1114,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>100002</v>
+        <v>10000002</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1081,108 +1123,257 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>100003</v>
+        <v>10000003</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>100101</v>
+        <v>10000101</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>100102</v>
+        <v>10000102</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
-        <v>100103</v>
+        <v>10000103</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
-        <v>100201</v>
+        <v>10000201</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
-        <v>100202</v>
+        <v>10000202</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
-        <v>100203</v>
+        <v>10000203</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
-        <v>100301</v>
+        <v>10000301</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
-        <v>100302</v>
+        <v>10000302</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
-        <v>100303</v>
+        <v>10000303</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
-        <v>100401</v>
+        <v>10000401</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
-        <v>100402</v>
+        <v>10000402</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
-        <v>100403</v>
+        <v>10000403</v>
       </c>
       <c r="B17">
         <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>22000001</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>22000002</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>22000003</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>22000004</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>22000005</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22000006</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>22000007</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>22000008</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>22000009</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>22000010</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>扭蛋-魅魔x10</t>
+  </si>
+  <si>
+    <t>解锁进阶设施</t>
+  </si>
+  <si>
+    <t>进阶设施+1</t>
+  </si>
+  <si>
+    <t>解锁献祭设施</t>
   </si>
   <si>
     <t>阵容上限+1</t>
@@ -1066,16 +1075,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="2" max="2" width="52.75" customWidth="1"/>
     <col min="3" max="3" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1268,7 +1277,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>22000001</v>
+        <v>21000001</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1279,123 +1288,200 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>22000002</v>
+        <v>21000002</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>22000003</v>
+        <v>21000003</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>22000004</v>
+        <v>21000004</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>22000005</v>
+        <v>21000005</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>22000006</v>
+        <v>21000006</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>22000007</v>
+        <v>21001001</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>22000008</v>
+        <v>22000001</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>22000009</v>
+        <v>22000002</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
+        <v>22000003</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>22000004</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>22000005</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>22000006</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>22000007</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>22000008</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>22000009</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
         <v>22000010</v>
       </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1"/>
-    <row r="33" ht="15" customHeight="1"/>
-    <row r="34" ht="15" customHeight="1"/>
-    <row r="35" ht="15" customHeight="1"/>
-    <row r="36" ht="15" customHeight="1"/>
-    <row r="37" ht="15" customHeight="1"/>
-    <row r="38" ht="15" customHeight="1"/>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="39" ht="15" customHeight="1"/>
     <row r="40" ht="15" customHeight="1"/>
     <row r="41" ht="15" customHeight="1"/>
     <row r="42" ht="15" customHeight="1"/>
-    <row r="74" ht="12" customHeight="1"/>
-    <row r="75" ht="12" customHeight="1"/>
-    <row r="76" ht="12" customHeight="1"/>
-    <row r="77" ht="12" customHeight="1"/>
-    <row r="78" ht="12" customHeight="1"/>
-    <row r="79" ht="12" customHeight="1"/>
-    <row r="80" ht="12" customHeight="1"/>
+    <row r="43" ht="15" customHeight="1"/>
+    <row r="44" ht="15" customHeight="1"/>
+    <row r="45" ht="15" customHeight="1"/>
+    <row r="46" ht="15" customHeight="1"/>
+    <row r="47" ht="15" customHeight="1"/>
+    <row r="48" ht="15" customHeight="1"/>
+    <row r="49" ht="15" customHeight="1"/>
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
+    <row r="83" ht="12" customHeight="1"/>
+    <row r="84" ht="12" customHeight="1"/>
+    <row r="85" ht="12" customHeight="1"/>
+    <row r="86" ht="12" customHeight="1"/>
+    <row r="87" ht="12" customHeight="1"/>
+    <row r="88" ht="12" customHeight="1"/>
+    <row r="89" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>解锁献祭设施</t>
+  </si>
+  <si>
+    <t>解锁终焉议会</t>
   </si>
   <si>
     <t>阵容上限+1</t>
@@ -1075,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1354,7 +1357,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>22000001</v>
+        <v>21002001</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1365,104 +1368,114 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>22000002</v>
+        <v>22000001</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>22000003</v>
+        <v>22000002</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>22000004</v>
+        <v>22000003</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>22000005</v>
+        <v>22000004</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>22000006</v>
+        <v>22000005</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>22000007</v>
+        <v>22000006</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>22000008</v>
+        <v>22000007</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>22000009</v>
+        <v>22000008</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
+        <v>22000009</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
         <v>22000010</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1"/>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="40" ht="15" customHeight="1"/>
     <row r="41" ht="15" customHeight="1"/>
     <row r="42" ht="15" customHeight="1"/>
@@ -1473,7 +1486,7 @@
     <row r="47" ht="15" customHeight="1"/>
     <row r="48" ht="15" customHeight="1"/>
     <row r="49" ht="15" customHeight="1"/>
-    <row r="81" ht="12" customHeight="1"/>
+    <row r="50" ht="15" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
     <row r="83" ht="12" customHeight="1"/>
     <row r="84" ht="12" customHeight="1"/>
@@ -1482,6 +1495,7 @@
     <row r="87" ht="12" customHeight="1"/>
     <row r="88" ht="12" customHeight="1"/>
     <row r="89" ht="12" customHeight="1"/>
+    <row r="90" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -50,67 +50,43 @@
     <t>序号</t>
   </si>
   <si>
-    <t>解锁类型 0生物 1扭蛋机  2研究</t>
+    <t>解锁类型 0研究 1扭蛋机</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
-    <t>扭蛋-剑与魔法x5</t>
-  </si>
-  <si>
-    <t>扭蛋-剑与魔法x10</t>
-  </si>
-  <si>
-    <t>扭蛋-人族</t>
-  </si>
-  <si>
-    <t>扭蛋-人族x5</t>
-  </si>
-  <si>
-    <t>扭蛋-人族x10</t>
-  </si>
-  <si>
-    <t>扭蛋-不死族</t>
-  </si>
-  <si>
-    <t>扭蛋-不死族x5</t>
-  </si>
-  <si>
-    <t>扭蛋-不死族x10</t>
-  </si>
-  <si>
-    <t>扭蛋-史莱姆</t>
-  </si>
-  <si>
-    <t>扭蛋-史莱姆x5</t>
-  </si>
-  <si>
-    <t>扭蛋-史莱姆x10</t>
-  </si>
-  <si>
-    <t>扭蛋-魅魔</t>
-  </si>
-  <si>
-    <t>扭蛋-魅魔x5</t>
-  </si>
-  <si>
-    <t>扭蛋-魅魔x10</t>
-  </si>
-  <si>
-    <t>解锁进阶设施</t>
+    <t>开启进阶设施</t>
   </si>
   <si>
     <t>进阶设施+1</t>
   </si>
   <si>
-    <t>解锁献祭设施</t>
-  </si>
-  <si>
-    <t>解锁终焉议会</t>
+    <t>开启献祭设施</t>
+  </si>
+  <si>
+    <t>开启终焉议会</t>
+  </si>
+  <si>
+    <t>传送门可选择世界+1</t>
   </si>
   <si>
     <t>阵容上限+1</t>
+  </si>
+  <si>
+    <t>解锁第二阵容</t>
+  </si>
+  <si>
+    <t>解锁第三阵容</t>
+  </si>
+  <si>
+    <t>解锁第四阵容</t>
+  </si>
+  <si>
+    <t>解锁第五阵容</t>
+  </si>
+  <si>
+    <t>种族：人类</t>
   </si>
 </sst>
 </file>
@@ -1078,16 +1054,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="52.75" customWidth="1"/>
+    <col min="1" max="1" width="33.75" customWidth="1"/>
+    <col min="2" max="2" width="31.125" customWidth="1"/>
     <col min="3" max="3" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1126,10 +1102,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>10000002</v>
+        <v>100000001</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1137,10 +1113,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>10000003</v>
+        <v>100000002</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1148,354 +1124,354 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>10000101</v>
+        <v>100000003</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>10000102</v>
+        <v>100000004</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>10000103</v>
+        <v>100000005</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>10000201</v>
+        <v>100000006</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>10000202</v>
+        <v>100100001</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>10000203</v>
+        <v>100200001</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>10000301</v>
+        <v>100300001</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>10000302</v>
+        <v>100300002</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>10000303</v>
+        <v>100300003</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>10000401</v>
+        <v>100300004</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>10000402</v>
+        <v>100300005</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>10000403</v>
+        <v>100300006</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>21000001</v>
+        <v>100300007</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>21000002</v>
+        <v>100300008</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>21000003</v>
+        <v>100300009</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>21000004</v>
+        <v>100300010</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>21000005</v>
+        <v>200000001</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>21000006</v>
+        <v>200000002</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>21001001</v>
+        <v>200000003</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>21002001</v>
+        <v>200000004</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>22000001</v>
+        <v>200000005</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:3">
       <c r="A27">
-        <v>22000002</v>
+        <v>200000006</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="1:3">
       <c r="A28">
-        <v>22000003</v>
+        <v>200000007</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="1:3">
       <c r="A29">
-        <v>22000004</v>
+        <v>200000008</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="1:3">
       <c r="A30">
-        <v>22000005</v>
+        <v>200000009</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" spans="1:3">
       <c r="A31">
-        <v>22000006</v>
+        <v>200000010</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" spans="1:3">
       <c r="A32">
-        <v>22000007</v>
+        <v>200100001</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" spans="1:3">
       <c r="A33">
-        <v>22000008</v>
+        <v>200100002</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="1:3">
       <c r="A34">
-        <v>22000009</v>
+        <v>200100003</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" spans="1:3">
       <c r="A35">
-        <v>22000010</v>
+        <v>200100004</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1"/>
-    <row r="41" ht="15" customHeight="1"/>
-    <row r="42" ht="15" customHeight="1"/>
-    <row r="43" ht="15" customHeight="1"/>
-    <row r="44" ht="15" customHeight="1"/>
-    <row r="45" ht="15" customHeight="1"/>
-    <row r="46" ht="15" customHeight="1"/>
-    <row r="47" ht="15" customHeight="1"/>
-    <row r="48" ht="15" customHeight="1"/>
-    <row r="49" ht="15" customHeight="1"/>
-    <row r="50" ht="15" customHeight="1"/>
-    <row r="82" ht="12" customHeight="1"/>
-    <row r="83" ht="12" customHeight="1"/>
-    <row r="84" ht="12" customHeight="1"/>
-    <row r="85" ht="12" customHeight="1"/>
-    <row r="86" ht="12" customHeight="1"/>
-    <row r="87" ht="12" customHeight="1"/>
-    <row r="88" ht="12" customHeight="1"/>
-    <row r="89" ht="12" customHeight="1"/>
-    <row r="90" ht="12" customHeight="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1" spans="1:3">
+      <c r="A36">
+        <v>300000000</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" ht="12" customHeight="1"/>
+    <row r="69" ht="12" customHeight="1"/>
+    <row r="70" ht="12" customHeight="1"/>
+    <row r="71" ht="12" customHeight="1"/>
+    <row r="72" ht="12" customHeight="1"/>
+    <row r="73" ht="12" customHeight="1"/>
+    <row r="74" ht="12" customHeight="1"/>
+    <row r="75" ht="12" customHeight="1"/>
+    <row r="76" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="UnlockInfo" sheetId="1" r:id="rId1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnlockInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -59,7 +59,19 @@
     <t>开启进阶设施</t>
   </si>
   <si>
-    <t>进阶设施+1</t>
+    <t>进阶设施+1 Lv1</t>
+  </si>
+  <si>
+    <t>进阶设施+1 Lv2</t>
+  </si>
+  <si>
+    <t>进阶设施+1 Lv3</t>
+  </si>
+  <si>
+    <t>进阶设施+1 Lv4</t>
+  </si>
+  <si>
+    <t>进阶设施+1 Lv5</t>
   </si>
   <si>
     <t>开启献祭设施</t>
@@ -1057,7 +1069,7 @@
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1102,7 +1114,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>100000001</v>
+        <v>100000000</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1113,7 +1125,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>100000002</v>
+        <v>100000001</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1124,46 +1136,46 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>100000003</v>
+        <v>100000002</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>100000004</v>
+        <v>100000003</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>100000005</v>
+        <v>100000004</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>100000006</v>
+        <v>100000005</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1174,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1185,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1196,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1207,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1218,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1229,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1240,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1251,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1262,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1273,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1284,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1295,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1306,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1317,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1328,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1339,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1350,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:3">
@@ -1361,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:3">
@@ -1372,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:3">
@@ -1383,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:3">
@@ -1394,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:3">
@@ -1405,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:3">
@@ -1416,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:3">
@@ -1427,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:3">
@@ -1438,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:3">
@@ -1449,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:3">
@@ -1460,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="116">
   <si>
     <t>id</t>
   </si>
@@ -83,7 +83,139 @@
     <t>传送门可选择世界+1</t>
   </si>
   <si>
-    <t>阵容上限+1</t>
+    <t>世界-剑与魔法</t>
+  </si>
+  <si>
+    <t>剑与魔法-无尽模式</t>
+  </si>
+  <si>
+    <t>剑与魔法-等级2</t>
+  </si>
+  <si>
+    <t>剑与魔法-等级3</t>
+  </si>
+  <si>
+    <t>剑与魔法-等级4</t>
+  </si>
+  <si>
+    <t>剑与魔法-等级5</t>
+  </si>
+  <si>
+    <t>剑与魔法-等级6</t>
+  </si>
+  <si>
+    <t>剑与魔法-等级7</t>
+  </si>
+  <si>
+    <t>剑与魔法-等级8</t>
+  </si>
+  <si>
+    <t>剑与魔法-等级9</t>
+  </si>
+  <si>
+    <t>剑与魔法-等级10</t>
+  </si>
+  <si>
+    <t>世界-虚空魔界</t>
+  </si>
+  <si>
+    <t>虚空魔界-无尽模式</t>
+  </si>
+  <si>
+    <t>虚空魔界-等级2</t>
+  </si>
+  <si>
+    <t>虚空魔界-等级3</t>
+  </si>
+  <si>
+    <t>虚空魔界-等级4</t>
+  </si>
+  <si>
+    <t>虚空魔界-等级5</t>
+  </si>
+  <si>
+    <t>虚空魔界-等级6</t>
+  </si>
+  <si>
+    <t>虚空魔界-等级7</t>
+  </si>
+  <si>
+    <t>虚空魔界-等级8</t>
+  </si>
+  <si>
+    <t>虚空魔界-等级9</t>
+  </si>
+  <si>
+    <t>虚空魔界-等级10</t>
+  </si>
+  <si>
+    <t>世界-刀与剑</t>
+  </si>
+  <si>
+    <t>刀与剑-无尽模式</t>
+  </si>
+  <si>
+    <t>刀与剑-等级2</t>
+  </si>
+  <si>
+    <t>刀与剑-等级3</t>
+  </si>
+  <si>
+    <t>刀与剑-等级4</t>
+  </si>
+  <si>
+    <t>刀与剑-等级5</t>
+  </si>
+  <si>
+    <t>刀与剑-等级6</t>
+  </si>
+  <si>
+    <t>刀与剑-等级7</t>
+  </si>
+  <si>
+    <t>刀与剑-等级8</t>
+  </si>
+  <si>
+    <t>刀与剑-等级9</t>
+  </si>
+  <si>
+    <t>刀与剑-等级10</t>
+  </si>
+  <si>
+    <t>世界-魔法世界</t>
+  </si>
+  <si>
+    <t>魔法世界-无尽模式</t>
+  </si>
+  <si>
+    <t>魔法世界-等级2</t>
+  </si>
+  <si>
+    <t>魔法世界-等级3</t>
+  </si>
+  <si>
+    <t>魔法世界-等级4</t>
+  </si>
+  <si>
+    <t>魔法世界-等级5</t>
+  </si>
+  <si>
+    <t>魔法世界-等级6</t>
+  </si>
+  <si>
+    <t>魔法世界-等级7</t>
+  </si>
+  <si>
+    <t>魔法世界-等级8</t>
+  </si>
+  <si>
+    <t>魔法世界-等级9</t>
+  </si>
+  <si>
+    <t>魔法世界-等级10</t>
+  </si>
+  <si>
+    <t>阵容魔物上限+1</t>
   </si>
   <si>
     <t>解锁第二阵容</t>
@@ -98,7 +230,151 @@
     <t>解锁第五阵容</t>
   </si>
   <si>
-    <t>种族：人类</t>
+    <t>解锁种族：人类</t>
+  </si>
+  <si>
+    <t>解锁职业：人类战士</t>
+  </si>
+  <si>
+    <t>解锁职业：人类弓箭手</t>
+  </si>
+  <si>
+    <t>解锁职业：人类魔法师（火）</t>
+  </si>
+  <si>
+    <t>解锁职业：人类魔法师（冰）</t>
+  </si>
+  <si>
+    <t>孕育人类x5</t>
+  </si>
+  <si>
+    <t>孕育人类x10</t>
+  </si>
+  <si>
+    <t>解锁种族：骷髅</t>
+  </si>
+  <si>
+    <t>解锁职业：骷髅战士</t>
+  </si>
+  <si>
+    <t>解锁职业：骷髅投手</t>
+  </si>
+  <si>
+    <t>解锁职业：骷髅魔法师（火）</t>
+  </si>
+  <si>
+    <t>解锁职业：骷髅魔法师（冰）</t>
+  </si>
+  <si>
+    <t>孕育骷髅x5</t>
+  </si>
+  <si>
+    <t>孕育骷髅x10</t>
+  </si>
+  <si>
+    <t>解锁种族：史莱姆</t>
+  </si>
+  <si>
+    <t>解锁职业：守护史莱姆</t>
+  </si>
+  <si>
+    <t>解锁职业：自爆史莱姆</t>
+  </si>
+  <si>
+    <t>解锁职业：烂泥史莱姆</t>
+  </si>
+  <si>
+    <t>解锁职业：毒液史莱姆</t>
+  </si>
+  <si>
+    <t>孕育史莱姆x5</t>
+  </si>
+  <si>
+    <t>孕育史莱姆x10</t>
+  </si>
+  <si>
+    <t>解锁种族：魅魔</t>
+  </si>
+  <si>
+    <t>解锁职业：战之魅魔</t>
+  </si>
+  <si>
+    <t>解锁职业：愈之魅魔</t>
+  </si>
+  <si>
+    <t>解锁职业：惑之魅魔</t>
+  </si>
+  <si>
+    <t>解锁职业：奥之魅魔</t>
+  </si>
+  <si>
+    <t>解锁职业：盾之魅魔</t>
+  </si>
+  <si>
+    <t>孕育魅魔x5</t>
+  </si>
+  <si>
+    <t>孕育魅魔x10</t>
+  </si>
+  <si>
+    <t>解锁种族：牛头人</t>
+  </si>
+  <si>
+    <t>解锁职业：牛头人战士</t>
+  </si>
+  <si>
+    <t>解锁职业：牛头人投手</t>
+  </si>
+  <si>
+    <t>解锁职业：牛头人魔法师（火）</t>
+  </si>
+  <si>
+    <t>解锁职业：牛头人魔法师（冰）</t>
+  </si>
+  <si>
+    <t>孕育牛头人x5</t>
+  </si>
+  <si>
+    <t>孕育牛头人x10</t>
+  </si>
+  <si>
+    <t>解锁种族：哥布林</t>
+  </si>
+  <si>
+    <t>解锁职业：哥布林刺客</t>
+  </si>
+  <si>
+    <t>解锁职业：哥布林弓箭手</t>
+  </si>
+  <si>
+    <t>解锁职业：哥布林敢死队</t>
+  </si>
+  <si>
+    <t>解锁职业：哥布林魔法师（火）</t>
+  </si>
+  <si>
+    <t>解锁职业：哥布林魔法师（冰）</t>
+  </si>
+  <si>
+    <t>解锁种族：兽人</t>
+  </si>
+  <si>
+    <t>解锁职业：兽人战士</t>
+  </si>
+  <si>
+    <t>解锁职业：兽人弓箭手</t>
+  </si>
+  <si>
+    <t>解锁职业：兽人魔法师（火）</t>
+  </si>
+  <si>
+    <t>解锁职业：兽人魔法师（冰）</t>
+  </si>
+  <si>
+    <t>孕育兽人x5</t>
+  </si>
+  <si>
+    <t>孕育兽人x10</t>
   </si>
 </sst>
 </file>
@@ -714,8 +990,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,10 +1345,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1312,7 +1591,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>200000001</v>
+        <v>100310101</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1323,167 +1602,1421 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>200000002</v>
+        <v>100310102</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>200000003</v>
+        <v>100310112</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>200000004</v>
+        <v>100310113</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
+        <v>100310114</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>100310115</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>100310116</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>100310117</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>100310118</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>100310119</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>100310120</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>100310201</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>100310202</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>100310212</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>100310213</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>100310214</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>100310215</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>100310216</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>100310217</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>100310218</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>100310219</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>100310220</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>100310301</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>100310302</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>100310312</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>100310313</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>100310314</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>100310315</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>100310316</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>100310317</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>100310318</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>100310319</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>100310320</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>100310401</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>100310402</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>100310412</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>100310413</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>100310414</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>100310415</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>100310416</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>100310417</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>100310418</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>100310419</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>100310420</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>200000001</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>200000002</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>200000003</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>200000004</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
         <v>200000005</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:3">
-      <c r="A27">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" ht="15" customHeight="1" spans="1:3">
+      <c r="A71">
         <v>200000006</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1" spans="1:3">
-      <c r="A28">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" ht="15" customHeight="1" spans="1:3">
+      <c r="A72">
         <v>200000007</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" spans="1:3">
-      <c r="A29">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" ht="15" customHeight="1" spans="1:3">
+      <c r="A73">
         <v>200000008</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1" spans="1:3">
-      <c r="A30">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" ht="15" customHeight="1" spans="1:3">
+      <c r="A74">
         <v>200000009</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" spans="1:3">
-      <c r="A31">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" ht="15" customHeight="1" spans="1:3">
+      <c r="A75">
         <v>200000010</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1" spans="1:3">
-      <c r="A32">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" ht="15" customHeight="1" spans="1:3">
+      <c r="A76">
+        <v>200000011</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" ht="15" customHeight="1" spans="1:3">
+      <c r="A77">
+        <v>200000012</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" ht="15" customHeight="1" spans="1:3">
+      <c r="A78">
+        <v>200000013</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" ht="15" customHeight="1" spans="1:3">
+      <c r="A79">
+        <v>200000014</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" ht="15" customHeight="1" spans="1:3">
+      <c r="A80">
+        <v>200000015</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" ht="15" customHeight="1" spans="1:3">
+      <c r="A81">
+        <v>200000016</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" ht="15" customHeight="1" spans="1:3">
+      <c r="A82">
+        <v>200000017</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" ht="15" customHeight="1" spans="1:3">
+      <c r="A83">
+        <v>200000018</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" ht="15" customHeight="1" spans="1:3">
+      <c r="A84">
+        <v>200000019</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" ht="15" customHeight="1" spans="1:3">
+      <c r="A85">
+        <v>200000020</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" ht="15" customHeight="1" spans="1:3">
+      <c r="A86">
+        <v>200000021</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" ht="15" customHeight="1" spans="1:3">
+      <c r="A87">
+        <v>200000022</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" ht="15" customHeight="1" spans="1:3">
+      <c r="A88">
+        <v>200000023</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" ht="15" customHeight="1" spans="1:3">
+      <c r="A89">
+        <v>200000024</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" ht="15" customHeight="1" spans="1:3">
+      <c r="A90">
+        <v>200000025</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" ht="15" customHeight="1" spans="1:3">
+      <c r="A91">
+        <v>200000026</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" ht="15" customHeight="1" spans="1:3">
+      <c r="A92">
+        <v>200000027</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" ht="15" customHeight="1" spans="1:3">
+      <c r="A93">
+        <v>200000028</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" ht="15" customHeight="1" spans="1:3">
+      <c r="A94">
+        <v>200000029</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" ht="15" customHeight="1" spans="1:3">
+      <c r="A95">
+        <v>200000030</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" ht="15" customHeight="1" spans="1:3">
+      <c r="A96">
         <v>200100001</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1" spans="1:3">
-      <c r="A33">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" ht="15" customHeight="1" spans="1:3">
+      <c r="A97">
         <v>200100002</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1" spans="1:3">
-      <c r="A34">
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" ht="15" customHeight="1" spans="1:3">
+      <c r="A98">
         <v>200100003</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1" spans="1:3">
-      <c r="A35">
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" ht="15" customHeight="1" spans="1:3">
+      <c r="A99">
         <v>200100004</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1" spans="1:3">
-      <c r="A36">
-        <v>300000000</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" ht="12" customHeight="1"/>
-    <row r="69" ht="12" customHeight="1"/>
-    <row r="70" ht="12" customHeight="1"/>
-    <row r="71" ht="12" customHeight="1"/>
-    <row r="72" ht="12" customHeight="1"/>
-    <row r="73" ht="12" customHeight="1"/>
-    <row r="74" ht="12" customHeight="1"/>
-    <row r="75" ht="12" customHeight="1"/>
-    <row r="76" ht="12" customHeight="1"/>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>300100000</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>300100001</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>300100002</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>300100003</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>300100004</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>300100101</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>300100102</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>300200000</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>300200001</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>300200002</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>300200003</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>300200004</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>300200101</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>300200102</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>300300000</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>300300001</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>300300002</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>300300003</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>300300004</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>300300101</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>300300102</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>300400000</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>300400001</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>300400002</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>300400003</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>300400004</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>300400005</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>300400101</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>300400102</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>300500000</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>300500001</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>300500002</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>300500003</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>300500004</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>300500101</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>300500102</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>300600000</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>300600001</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>300600002</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>300600003</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>300600004</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>300600005</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>300600101</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>300600102</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>300700000</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>300700001</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>300700002</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>300700003</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>300700004</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>300700101</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>300700102</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="168" ht="12" customHeight="1"/>
+    <row r="169" ht="12" customHeight="1"/>
+    <row r="170" ht="12" customHeight="1"/>
+    <row r="171" ht="12" customHeight="1"/>
+    <row r="172" ht="12" customHeight="1"/>
+    <row r="173" ht="12" customHeight="1"/>
+    <row r="174" ht="12" customHeight="1"/>
+    <row r="175" ht="12" customHeight="1"/>
+    <row r="176" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -80,6 +80,12 @@
     <t>开启终焉议会</t>
   </si>
   <si>
+    <t>终焉议会议案：魔物重命名</t>
+  </si>
+  <si>
+    <t>终焉议会议案：魔王重命名</t>
+  </si>
+  <si>
     <t>传送门可选择世界+1</t>
   </si>
   <si>
@@ -215,6 +221,9 @@
     <t>魔法世界-等级10</t>
   </si>
   <si>
+    <t>孕育可跳过</t>
+  </si>
+  <si>
     <t>阵容魔物上限+1</t>
   </si>
   <si>
@@ -251,6 +260,9 @@
     <t>孕育人类x10</t>
   </si>
   <si>
+    <t>可转生为人类</t>
+  </si>
+  <si>
     <t>解锁种族：骷髅</t>
   </si>
   <si>
@@ -272,6 +284,9 @@
     <t>孕育骷髅x10</t>
   </si>
   <si>
+    <t>可转生为骷髅</t>
+  </si>
+  <si>
     <t>解锁种族：史莱姆</t>
   </si>
   <si>
@@ -293,6 +308,9 @@
     <t>孕育史莱姆x10</t>
   </si>
   <si>
+    <t>可转生为史莱姆</t>
+  </si>
+  <si>
     <t>解锁种族：魅魔</t>
   </si>
   <si>
@@ -317,6 +335,9 @@
     <t>孕育魅魔x10</t>
   </si>
   <si>
+    <t>可转生为魅魔</t>
+  </si>
+  <si>
     <t>解锁种族：牛头人</t>
   </si>
   <si>
@@ -338,6 +359,9 @@
     <t>孕育牛头人x10</t>
   </si>
   <si>
+    <t>可转生为牛头人</t>
+  </si>
+  <si>
     <t>解锁种族：哥布林</t>
   </si>
   <si>
@@ -356,6 +380,9 @@
     <t>解锁职业：哥布林魔法师（冰）</t>
   </si>
   <si>
+    <t>可转生为哥布林</t>
+  </si>
+  <si>
     <t>解锁种族：兽人</t>
   </si>
   <si>
@@ -375,6 +402,9 @@
   </si>
   <si>
     <t>孕育兽人x10</t>
+  </si>
+  <si>
+    <t>可转生兽人</t>
   </si>
 </sst>
 </file>
@@ -1345,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1480,129 +1510,129 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12">
-        <v>100300001</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="A12" s="1">
+        <v>100200002</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13">
-        <v>100300002</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
+      <c r="A13" s="1">
+        <v>100200003</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>100300003</v>
+        <v>100300001</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>100300004</v>
+        <v>100300002</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>100300005</v>
+        <v>100300003</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>100300006</v>
+        <v>100300004</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>100300007</v>
+        <v>100300005</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>100300008</v>
+        <v>100300006</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>100300009</v>
+        <v>100300007</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>100300010</v>
+        <v>100300008</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>100310101</v>
+        <v>100300009</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>100310102</v>
+        <v>100300010</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1613,7 +1643,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>100310112</v>
+        <v>100310101</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1624,7 +1654,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>100310113</v>
+        <v>100310102</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1635,7 +1665,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>100310114</v>
+        <v>100310112</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1646,7 +1676,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>100310115</v>
+        <v>100310113</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1657,7 +1687,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>100310116</v>
+        <v>100310114</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1668,7 +1698,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>100310117</v>
+        <v>100310115</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1679,7 +1709,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>100310118</v>
+        <v>100310116</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1690,7 +1720,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>100310119</v>
+        <v>100310117</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1701,7 +1731,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>100310120</v>
+        <v>100310118</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1712,7 +1742,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>100310201</v>
+        <v>100310119</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1723,7 +1753,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>100310202</v>
+        <v>100310120</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1734,7 +1764,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>100310212</v>
+        <v>100310201</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1745,7 +1775,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>100310213</v>
+        <v>100310202</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1756,7 +1786,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>100310214</v>
+        <v>100310212</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1767,7 +1797,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>100310215</v>
+        <v>100310213</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1778,7 +1808,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>100310216</v>
+        <v>100310214</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1789,7 +1819,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>100310217</v>
+        <v>100310215</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1800,7 +1830,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>100310218</v>
+        <v>100310216</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1811,7 +1841,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>100310219</v>
+        <v>100310217</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1822,7 +1852,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>100310220</v>
+        <v>100310218</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1833,7 +1863,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>100310301</v>
+        <v>100310219</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1844,7 +1874,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>100310302</v>
+        <v>100310220</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1855,7 +1885,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>100310312</v>
+        <v>100310301</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1866,7 +1896,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>100310313</v>
+        <v>100310302</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1877,7 +1907,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>100310314</v>
+        <v>100310312</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1888,7 +1918,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>100310315</v>
+        <v>100310313</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1899,7 +1929,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>100310316</v>
+        <v>100310314</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1910,7 +1940,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>100310317</v>
+        <v>100310315</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1921,7 +1951,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>100310318</v>
+        <v>100310316</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1932,7 +1962,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>100310319</v>
+        <v>100310317</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1943,7 +1973,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>100310320</v>
+        <v>100310318</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1954,7 +1984,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>100310401</v>
+        <v>100310319</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1965,7 +1995,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>100310402</v>
+        <v>100310320</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1976,7 +2006,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>100310412</v>
+        <v>100310401</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1987,7 +2017,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>100310413</v>
+        <v>100310402</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1998,7 +2028,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>100310414</v>
+        <v>100310412</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2009,7 +2039,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>100310415</v>
+        <v>100310413</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2020,7 +2050,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>100310416</v>
+        <v>100310414</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2031,7 +2061,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>100310417</v>
+        <v>100310415</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2042,7 +2072,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>100310418</v>
+        <v>100310416</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2053,7 +2083,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>100310419</v>
+        <v>100310417</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2064,7 +2094,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>100310420</v>
+        <v>100310418</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2075,7 +2105,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>200000001</v>
+        <v>100310419</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2086,348 +2116,348 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>200000002</v>
+        <v>100310420</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68">
-        <v>200000003</v>
+      <c r="A68" s="1">
+        <v>100400001</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-      <c r="C68" t="s">
-        <v>62</v>
+      <c r="C68" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>200000004</v>
+        <v>200000001</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
+        <v>200000002</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>200000003</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>200000004</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
         <v>200000005</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" ht="15" customHeight="1" spans="1:3">
-      <c r="A71">
-        <v>200000006</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" ht="15" customHeight="1" spans="1:3">
-      <c r="A72">
-        <v>200000007</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" ht="15" customHeight="1" spans="1:3">
-      <c r="A73">
-        <v>200000008</v>
-      </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" spans="1:3">
       <c r="A74">
-        <v>200000009</v>
+        <v>200000006</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" spans="1:3">
       <c r="A75">
-        <v>200000010</v>
+        <v>200000007</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" spans="1:3">
       <c r="A76">
-        <v>200000011</v>
+        <v>200000008</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" spans="1:3">
       <c r="A77">
-        <v>200000012</v>
+        <v>200000009</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" spans="1:3">
       <c r="A78">
-        <v>200000013</v>
+        <v>200000010</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" spans="1:3">
       <c r="A79">
-        <v>200000014</v>
+        <v>200000011</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" spans="1:3">
       <c r="A80">
-        <v>200000015</v>
+        <v>200000012</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" spans="1:3">
       <c r="A81">
-        <v>200000016</v>
+        <v>200000013</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="1:3">
       <c r="A82">
-        <v>200000017</v>
+        <v>200000014</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" spans="1:3">
       <c r="A83">
-        <v>200000018</v>
+        <v>200000015</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" spans="1:3">
       <c r="A84">
-        <v>200000019</v>
+        <v>200000016</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" spans="1:3">
       <c r="A85">
-        <v>200000020</v>
+        <v>200000017</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" spans="1:3">
       <c r="A86">
-        <v>200000021</v>
+        <v>200000018</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" spans="1:3">
       <c r="A87">
-        <v>200000022</v>
+        <v>200000019</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" spans="1:3">
       <c r="A88">
-        <v>200000023</v>
+        <v>200000020</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" spans="1:3">
       <c r="A89">
-        <v>200000024</v>
+        <v>200000021</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" spans="1:3">
       <c r="A90">
-        <v>200000025</v>
+        <v>200000022</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" spans="1:3">
       <c r="A91">
-        <v>200000026</v>
+        <v>200000023</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" spans="1:3">
       <c r="A92">
-        <v>200000027</v>
+        <v>200000024</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" spans="1:3">
       <c r="A93">
-        <v>200000028</v>
+        <v>200000025</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="1:3">
       <c r="A94">
-        <v>200000029</v>
+        <v>200000026</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" spans="1:3">
       <c r="A95">
-        <v>200000030</v>
+        <v>200000027</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" spans="1:3">
       <c r="A96">
-        <v>200100001</v>
+        <v>200000028</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" spans="1:3">
       <c r="A97">
-        <v>200100002</v>
+        <v>200000029</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" spans="1:3">
       <c r="A98">
-        <v>200100003</v>
+        <v>200000030</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2438,7 +2468,7 @@
     </row>
     <row r="99" ht="15" customHeight="1" spans="1:3">
       <c r="A99">
-        <v>200100004</v>
+        <v>200100001</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2447,20 +2477,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" ht="15" customHeight="1" spans="1:3">
       <c r="A100">
-        <v>300100000</v>
+        <v>200100002</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>300100001</v>
+    <row r="101" ht="15" customHeight="1" spans="1:3">
+      <c r="A101">
+        <v>200100003</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2469,9 +2499,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>300100002</v>
+    <row r="102" ht="15" customHeight="1" spans="1:3">
+      <c r="A102">
+        <v>200100004</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2481,19 +2511,19 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>300100003</v>
+      <c r="A103">
+        <v>300100000</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>300100004</v>
+        <v>300100001</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2504,40 +2534,40 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>300100101</v>
+        <v>300100002</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>300100102</v>
+        <v>300100003</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107">
-        <v>300200000</v>
+      <c r="A107" s="1">
+        <v>300100004</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108">
-        <v>300200001</v>
+      <c r="A108" s="1">
+        <v>300100101</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2547,8 +2577,8 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109">
-        <v>300200002</v>
+      <c r="A109" s="1">
+        <v>300100102</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2558,10 +2588,10 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110">
-        <v>300200003</v>
-      </c>
-      <c r="B110">
+      <c r="A110" s="1">
+        <v>300100201</v>
+      </c>
+      <c r="B110" s="1">
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -2570,7 +2600,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>300200004</v>
+        <v>300200000</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2581,7 +2611,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>300200101</v>
+        <v>300200001</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2592,7 +2622,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>300200102</v>
+        <v>300200002</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2602,8 +2632,8 @@
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>300300000</v>
+      <c r="A114">
+        <v>300200003</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2614,62 +2644,62 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>300300001</v>
+        <v>300200004</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>300300002</v>
+        <v>300200101</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>300300003</v>
+        <v>300200102</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118">
-        <v>300300004</v>
+      <c r="A118" s="1">
+        <v>300200201</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119">
-        <v>300300101</v>
+      <c r="A119" s="1">
+        <v>300300000</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>300300102</v>
+        <v>300300001</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -2679,19 +2709,19 @@
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>300400000</v>
+      <c r="A121">
+        <v>300300002</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>300400001</v>
+        <v>300300003</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -2702,7 +2732,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>300400002</v>
+        <v>300300004</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -2713,7 +2743,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>300400003</v>
+        <v>300300101</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -2724,7 +2754,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>300400004</v>
+        <v>300300102</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -2734,30 +2764,30 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126">
-        <v>300400005</v>
+      <c r="A126" s="1">
+        <v>300300201</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127">
-        <v>300400101</v>
+      <c r="A127" s="1">
+        <v>300400000</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>300400102</v>
+        <v>300400001</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2767,19 +2797,19 @@
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>300500000</v>
+      <c r="A129">
+        <v>300400002</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>300500001</v>
+      <c r="A130">
+        <v>300400003</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2789,8 +2819,8 @@
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>300500002</v>
+      <c r="A131">
+        <v>300400004</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -2800,8 +2830,8 @@
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>300500003</v>
+      <c r="A132">
+        <v>300400005</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2811,8 +2841,8 @@
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>300500004</v>
+      <c r="A133">
+        <v>300400101</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -2823,7 +2853,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>300500101</v>
+        <v>300400102</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -2833,19 +2863,19 @@
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135">
-        <v>300500102</v>
+      <c r="A135" s="1">
+        <v>300400201</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>300600000</v>
+        <v>300500000</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2856,7 +2886,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>300600001</v>
+        <v>300500001</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2867,7 +2897,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>300600002</v>
+        <v>300500002</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2878,7 +2908,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>300600003</v>
+        <v>300500003</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2889,7 +2919,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>300600004</v>
+        <v>300500004</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2899,8 +2929,8 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>300600005</v>
+      <c r="A141">
+        <v>300500101</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2911,112 +2941,222 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>300600101</v>
+        <v>300500102</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143">
-        <v>300600102</v>
+      <c r="A143" s="1">
+        <v>300500201</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
-      <c r="C143" t="s">
-        <v>95</v>
+      <c r="C143" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>300700000</v>
+        <v>300600000</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>300700001</v>
+        <v>300600001</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>300700002</v>
+        <v>300600002</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>300700003</v>
+        <v>300600003</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>300700004</v>
+        <v>300600004</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149">
-        <v>300700101</v>
+      <c r="A149" s="1">
+        <v>300600005</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
+        <v>300600101</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>300600102</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>300600201</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>300700000</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>300700001</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>300700002</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>300700003</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>300700004</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>300700101</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
         <v>300700102</v>
       </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-      <c r="C150" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="168" ht="12" customHeight="1"/>
-    <row r="169" ht="12" customHeight="1"/>
-    <row r="170" ht="12" customHeight="1"/>
-    <row r="171" ht="12" customHeight="1"/>
-    <row r="172" ht="12" customHeight="1"/>
-    <row r="173" ht="12" customHeight="1"/>
-    <row r="174" ht="12" customHeight="1"/>
-    <row r="175" ht="12" customHeight="1"/>
-    <row r="176" ht="12" customHeight="1"/>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>300700201</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="177" ht="12" customHeight="1"/>
+    <row r="178" ht="12" customHeight="1"/>
+    <row r="179" ht="12" customHeight="1"/>
+    <row r="180" ht="12" customHeight="1"/>
+    <row r="181" ht="12" customHeight="1"/>
+    <row r="182" ht="12" customHeight="1"/>
+    <row r="183" ht="12" customHeight="1"/>
+    <row r="184" ht="12" customHeight="1"/>
+    <row r="185" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
   <si>
     <t>id</t>
   </si>
@@ -89,6 +89,9 @@
     <t>传送门可选择世界+1</t>
   </si>
   <si>
+    <t>传送门可选择世界+10</t>
+  </si>
+  <si>
     <t>世界-剑与魔法</t>
   </si>
   <si>
@@ -98,27 +101,6 @@
     <t>剑与魔法-等级2</t>
   </si>
   <si>
-    <t>剑与魔法-等级3</t>
-  </si>
-  <si>
-    <t>剑与魔法-等级4</t>
-  </si>
-  <si>
-    <t>剑与魔法-等级5</t>
-  </si>
-  <si>
-    <t>剑与魔法-等级6</t>
-  </si>
-  <si>
-    <t>剑与魔法-等级7</t>
-  </si>
-  <si>
-    <t>剑与魔法-等级8</t>
-  </si>
-  <si>
-    <t>剑与魔法-等级9</t>
-  </si>
-  <si>
     <t>剑与魔法-等级10</t>
   </si>
   <si>
@@ -131,27 +113,6 @@
     <t>虚空魔界-等级2</t>
   </si>
   <si>
-    <t>虚空魔界-等级3</t>
-  </si>
-  <si>
-    <t>虚空魔界-等级4</t>
-  </si>
-  <si>
-    <t>虚空魔界-等级5</t>
-  </si>
-  <si>
-    <t>虚空魔界-等级6</t>
-  </si>
-  <si>
-    <t>虚空魔界-等级7</t>
-  </si>
-  <si>
-    <t>虚空魔界-等级8</t>
-  </si>
-  <si>
-    <t>虚空魔界-等级9</t>
-  </si>
-  <si>
     <t>虚空魔界-等级10</t>
   </si>
   <si>
@@ -164,27 +125,6 @@
     <t>刀与剑-等级2</t>
   </si>
   <si>
-    <t>刀与剑-等级3</t>
-  </si>
-  <si>
-    <t>刀与剑-等级4</t>
-  </si>
-  <si>
-    <t>刀与剑-等级5</t>
-  </si>
-  <si>
-    <t>刀与剑-等级6</t>
-  </si>
-  <si>
-    <t>刀与剑-等级7</t>
-  </si>
-  <si>
-    <t>刀与剑-等级8</t>
-  </si>
-  <si>
-    <t>刀与剑-等级9</t>
-  </si>
-  <si>
     <t>刀与剑-等级10</t>
   </si>
   <si>
@@ -197,34 +137,34 @@
     <t>魔法世界-等级2</t>
   </si>
   <si>
-    <t>魔法世界-等级3</t>
-  </si>
-  <si>
-    <t>魔法世界-等级4</t>
-  </si>
-  <si>
-    <t>魔法世界-等级5</t>
-  </si>
-  <si>
-    <t>魔法世界-等级6</t>
-  </si>
-  <si>
-    <t>魔法世界-等级7</t>
-  </si>
-  <si>
-    <t>魔法世界-等级8</t>
-  </si>
-  <si>
-    <t>魔法世界-等级9</t>
-  </si>
-  <si>
     <t>魔法世界-等级10</t>
   </si>
   <si>
     <t>孕育可跳过</t>
   </si>
   <si>
+    <t>解锁孕育稀有度：R</t>
+  </si>
+  <si>
+    <t>孕育稀有度：R 概率+1%</t>
+  </si>
+  <si>
+    <t>解锁孕育稀有度：SR</t>
+  </si>
+  <si>
+    <t>孕育稀有度：SR 概率+1%</t>
+  </si>
+  <si>
+    <t>解锁孕育稀有度：SSR</t>
+  </si>
+  <si>
+    <t>孕育稀有度：SSR 概率+1%</t>
+  </si>
+  <si>
     <t>阵容魔物上限+1</t>
+  </si>
+  <si>
+    <t>阵容魔物上限+30</t>
   </si>
   <si>
     <t>解锁第二阵容</t>
@@ -1375,10 +1315,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C185"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1544,1619 +1484,992 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>100300002</v>
+        <v>100300010</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>100300003</v>
+        <v>100310101</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>100300004</v>
+        <v>100310102</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>100300005</v>
+        <v>100310112</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>100300006</v>
+        <v>100310120</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>100300007</v>
+        <v>100310201</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>100300008</v>
+        <v>100310202</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>100300009</v>
+        <v>100310212</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>100300010</v>
+        <v>100310220</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>100310101</v>
+        <v>100310301</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>100310102</v>
+        <v>100310302</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>100310112</v>
+        <v>100310312</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>100310113</v>
+        <v>100310320</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>100310114</v>
+        <v>100310401</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>100310115</v>
+        <v>100310402</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>100310116</v>
+        <v>100310412</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>100310117</v>
+        <v>100310420</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32">
-        <v>100310118</v>
+      <c r="A32" s="1">
+        <v>100400001</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" t="s">
-        <v>28</v>
+      <c r="C32" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33">
-        <v>100310119</v>
+      <c r="A33" s="1">
+        <v>100401000</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33" t="s">
-        <v>29</v>
+      <c r="C33" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34">
-        <v>100310120</v>
+      <c r="A34" s="1">
+        <v>100401001</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34" t="s">
-        <v>30</v>
+      <c r="C34" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35">
-        <v>100310201</v>
+      <c r="A35" s="1">
+        <v>100402000</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" t="s">
-        <v>31</v>
+      <c r="C35" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36">
-        <v>100310202</v>
+      <c r="A36" s="1">
+        <v>100402001</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36" t="s">
-        <v>32</v>
+      <c r="C36" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37">
-        <v>100310212</v>
+      <c r="A37" s="1">
+        <v>100403000</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-      <c r="C37" t="s">
-        <v>33</v>
+      <c r="C37" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38">
-        <v>100310213</v>
+      <c r="A38" s="1">
+        <v>100403001</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" t="s">
-        <v>34</v>
+      <c r="C38" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39">
-        <v>100310214</v>
+      <c r="A39" s="1">
+        <v>100404001</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39" t="s">
-        <v>35</v>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>100310215</v>
+        <v>200000001</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" spans="1:3">
       <c r="A41">
-        <v>100310216</v>
+        <v>200000030</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" spans="1:3">
       <c r="A42">
-        <v>100310217</v>
+        <v>200100001</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1" spans="1:3">
       <c r="A43">
-        <v>100310218</v>
+        <v>200100002</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1" spans="1:3">
       <c r="A44">
-        <v>100310219</v>
+        <v>200100003</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1" spans="1:3">
       <c r="A45">
-        <v>100310220</v>
+        <v>200100004</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>100310301</v>
+        <v>300100000</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-      <c r="C46" t="s">
-        <v>42</v>
+      <c r="C46" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47">
-        <v>100310302</v>
+      <c r="A47" s="1">
+        <v>300100001</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48">
-        <v>100310312</v>
+      <c r="A48" s="1">
+        <v>300100002</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49">
-        <v>100310313</v>
+      <c r="A49" s="1">
+        <v>300100003</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50">
-        <v>100310314</v>
+      <c r="A50" s="1">
+        <v>300100004</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51">
-        <v>100310315</v>
+      <c r="A51" s="1">
+        <v>300100101</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-      <c r="C51" t="s">
-        <v>47</v>
+      <c r="C51" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52">
-        <v>100310316</v>
+      <c r="A52" s="1">
+        <v>300100102</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-      <c r="C52" t="s">
-        <v>48</v>
+      <c r="C52" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53">
-        <v>100310317</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53" t="s">
-        <v>49</v>
+      <c r="A53" s="1">
+        <v>300100201</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>100310318</v>
+        <v>300200000</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-      <c r="C54" t="s">
-        <v>50</v>
+      <c r="C54" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>100310319</v>
+        <v>300200001</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-      <c r="C55" t="s">
-        <v>51</v>
+      <c r="C55" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>100310320</v>
+        <v>300200002</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56" t="s">
-        <v>52</v>
+      <c r="C56" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>100310401</v>
+        <v>300200003</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-      <c r="C57" t="s">
-        <v>53</v>
+      <c r="C57" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>100310402</v>
+        <v>300200004</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-      <c r="C58" t="s">
-        <v>54</v>
+      <c r="C58" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>100310412</v>
+        <v>300200101</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-      <c r="C59" t="s">
-        <v>55</v>
+      <c r="C59" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>100310413</v>
+        <v>300200102</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-      <c r="C60" t="s">
-        <v>56</v>
+      <c r="C60" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61">
-        <v>100310414</v>
+      <c r="A61" s="1">
+        <v>300200201</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-      <c r="C61" t="s">
-        <v>57</v>
+      <c r="C61" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62">
-        <v>100310415</v>
+      <c r="A62" s="1">
+        <v>300300000</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-      <c r="C62" t="s">
-        <v>58</v>
+      <c r="C62" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>100310416</v>
+        <v>300300001</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>100310417</v>
+        <v>300300002</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>100310418</v>
+        <v>300300003</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>100310419</v>
+        <v>300300004</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>100310420</v>
+        <v>300300101</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>100400001</v>
+      <c r="A68">
+        <v>300300102</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>64</v>
+      <c r="C68" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69">
-        <v>200000001</v>
+      <c r="A69" s="1">
+        <v>300300201</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
-      <c r="C69" t="s">
-        <v>65</v>
+      <c r="C69" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70">
-        <v>200000002</v>
+      <c r="A70" s="1">
+        <v>300400000</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-      <c r="C70" t="s">
-        <v>65</v>
+      <c r="C70" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>200000003</v>
+        <v>300400001</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>200000004</v>
+        <v>300400002</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>200000005</v>
+        <v>300400003</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" ht="15" customHeight="1" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
-        <v>200000006</v>
+        <v>300400004</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" ht="15" customHeight="1" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75">
-        <v>200000007</v>
+        <v>300400005</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" ht="15" customHeight="1" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76">
-        <v>200000008</v>
+        <v>300400101</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" ht="15" customHeight="1" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77">
-        <v>200000009</v>
+        <v>300400102</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" ht="15" customHeight="1" spans="1:3">
-      <c r="A78">
-        <v>200000010</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>300400201</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
-      <c r="C78" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" ht="15" customHeight="1" spans="1:3">
-      <c r="A79">
-        <v>200000011</v>
+      <c r="C78" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>300500000</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-      <c r="C79" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="80" ht="15" customHeight="1" spans="1:3">
-      <c r="A80">
-        <v>200000012</v>
+      <c r="C79" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>300500001</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="81" ht="15" customHeight="1" spans="1:3">
-      <c r="A81">
-        <v>200000013</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>300500002</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="82" ht="15" customHeight="1" spans="1:3">
-      <c r="A82">
-        <v>200000014</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>300500003</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" ht="15" customHeight="1" spans="1:3">
-      <c r="A83">
-        <v>200000015</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>300500004</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" ht="15" customHeight="1" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84">
-        <v>200000016</v>
+        <v>300500101</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" ht="15" customHeight="1" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85">
-        <v>200000017</v>
+        <v>300500102</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="86" ht="15" customHeight="1" spans="1:3">
-      <c r="A86">
-        <v>200000018</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>300500201</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-      <c r="C86" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" ht="15" customHeight="1" spans="1:3">
-      <c r="A87">
-        <v>200000019</v>
+      <c r="C86" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>300600000</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" ht="15" customHeight="1" spans="1:3">
-      <c r="A88">
-        <v>200000020</v>
+      <c r="C87" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>300600001</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="89" ht="15" customHeight="1" spans="1:3">
-      <c r="A89">
-        <v>200000021</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>300600002</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="90" ht="15" customHeight="1" spans="1:3">
-      <c r="A90">
-        <v>200000022</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>300600003</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="91" ht="15" customHeight="1" spans="1:3">
-      <c r="A91">
-        <v>200000023</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>300600004</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="92" ht="15" customHeight="1" spans="1:3">
-      <c r="A92">
-        <v>200000024</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>300600005</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="93" ht="15" customHeight="1" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93">
-        <v>200000025</v>
+        <v>300600101</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="94" ht="15" customHeight="1" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94">
-        <v>200000026</v>
+        <v>300600102</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95" ht="15" customHeight="1" spans="1:3">
-      <c r="A95">
-        <v>200000027</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>300600201</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
-      <c r="C95" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="96" ht="15" customHeight="1" spans="1:3">
-      <c r="A96">
-        <v>200000028</v>
+      <c r="C95" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>300700000</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" ht="15" customHeight="1" spans="1:3">
-      <c r="A97">
-        <v>200000029</v>
+      <c r="C96" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>300700001</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="98" ht="15" customHeight="1" spans="1:3">
-      <c r="A98">
-        <v>200000030</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>300700002</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="99" ht="15" customHeight="1" spans="1:3">
-      <c r="A99">
-        <v>200100001</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>300700003</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="100" ht="15" customHeight="1" spans="1:3">
-      <c r="A100">
-        <v>200100002</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>300700004</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="101" ht="15" customHeight="1" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101">
-        <v>200100003</v>
+        <v>300700101</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="102" ht="15" customHeight="1" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102">
-        <v>200100004</v>
+        <v>300700102</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103">
-        <v>300100000</v>
+      <c r="A103" s="1">
+        <v>300700201</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>300100001</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>300100002</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>300100003</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="C106" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>300100004</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>300100101</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>300100102</v>
-      </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>300100201</v>
-      </c>
-      <c r="B110" s="1">
-        <v>0</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111">
-        <v>300200000</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112">
-        <v>300200001</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113">
-        <v>300200002</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114">
-        <v>300200003</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115">
-        <v>300200004</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116">
-        <v>300200101</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117">
-        <v>300200102</v>
-      </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>300200201</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>300300000</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120">
-        <v>300300001</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121">
-        <v>300300002</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122">
-        <v>300300003</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123">
-        <v>300300004</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124">
-        <v>300300101</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125">
-        <v>300300102</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>300300201</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>300400000</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128">
-        <v>300400001</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="C128" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129">
-        <v>300400002</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="C129" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130">
-        <v>300400003</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="C130" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131">
-        <v>300400004</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-      <c r="C131" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132">
-        <v>300400005</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-      <c r="C132" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133">
-        <v>300400101</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="C133" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134">
-        <v>300400102</v>
-      </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-      <c r="C134" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>300400201</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>300500000</v>
-      </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>300500001</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>300500002</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>300500003</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>300500004</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-      <c r="C140" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141">
-        <v>300500101</v>
-      </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142">
-        <v>300500102</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>300500201</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>300600000</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>300600001</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="C145" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>300600002</v>
-      </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-      <c r="C146" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>300600003</v>
-      </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>300600004</v>
-      </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>300600005</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-      <c r="C149" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150">
-        <v>300600101</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-      <c r="C150" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151">
-        <v>300600102</v>
-      </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-      <c r="C151" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>300600201</v>
-      </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>300700000</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>300700001</v>
-      </c>
-      <c r="B154">
-        <v>0</v>
-      </c>
-      <c r="C154" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>300700002</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-      <c r="C155" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>300700003</v>
-      </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-      <c r="C156" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>300700004</v>
-      </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-      <c r="C157" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158">
-        <v>300700101</v>
-      </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-      <c r="C158" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159">
-        <v>300700102</v>
-      </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-      <c r="C159" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>300700201</v>
-      </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="177" ht="12" customHeight="1"/>
-    <row r="178" ht="12" customHeight="1"/>
-    <row r="179" ht="12" customHeight="1"/>
-    <row r="180" ht="12" customHeight="1"/>
-    <row r="181" ht="12" customHeight="1"/>
-    <row r="182" ht="12" customHeight="1"/>
-    <row r="183" ht="12" customHeight="1"/>
-    <row r="184" ht="12" customHeight="1"/>
-    <row r="185" ht="12" customHeight="1"/>
+    <row r="120" ht="12" customHeight="1"/>
+    <row r="121" ht="12" customHeight="1"/>
+    <row r="122" ht="12" customHeight="1"/>
+    <row r="123" ht="12" customHeight="1"/>
+    <row r="124" ht="12" customHeight="1"/>
+    <row r="125" ht="12" customHeight="1"/>
+    <row r="126" ht="12" customHeight="1"/>
+    <row r="127" ht="12" customHeight="1"/>
+    <row r="128" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_unlock_info[解锁信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="UnlockInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>id</t>
   </si>
@@ -1315,10 +1315,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" sqref="$A33:$XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1747,720 +1747,710 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>100404001</v>
+      <c r="A39">
+        <v>200000001</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1" spans="1:3">
       <c r="A40">
-        <v>200000001</v>
+        <v>200000030</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:3">
       <c r="A41">
-        <v>200000030</v>
+        <v>200100001</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:3">
       <c r="A42">
-        <v>200100001</v>
+        <v>200100002</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:3">
       <c r="A43">
-        <v>200100002</v>
+        <v>200100003</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:3">
       <c r="A44">
-        <v>200100003</v>
+        <v>200100004</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" ht="15" customHeight="1" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
-        <v>200100004</v>
+        <v>300100000</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-      <c r="C45" t="s">
-        <v>49</v>
+      <c r="C45" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46">
-        <v>300100000</v>
+      <c r="A46" s="1">
+        <v>300100001</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>50</v>
+      <c r="C46" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>300100001</v>
+        <v>300100002</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>300100002</v>
+        <v>300100003</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>300100003</v>
+        <v>300100004</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>300100004</v>
+        <v>300100101</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-      <c r="C50" t="s">
-        <v>54</v>
+      <c r="C50" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>300100101</v>
+        <v>300100102</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>300100102</v>
-      </c>
-      <c r="B52">
+        <v>300100201</v>
+      </c>
+      <c r="B52" s="1">
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>300100201</v>
-      </c>
-      <c r="B53" s="1">
+      <c r="A53">
+        <v>300200000</v>
+      </c>
+      <c r="B53">
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>300200000</v>
+        <v>300200001</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>300200001</v>
+        <v>300200002</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>300200002</v>
+        <v>300200003</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>300200003</v>
+        <v>300200004</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>300200004</v>
+        <v>300200101</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>300200101</v>
+        <v>300200102</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60">
-        <v>300200102</v>
+      <c r="A60" s="1">
+        <v>300200201</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>300200201</v>
+        <v>300300000</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>300300000</v>
+      <c r="A62">
+        <v>300300001</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>66</v>
+      <c r="C62" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>300300001</v>
+        <v>300300002</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>300300002</v>
+        <v>300300003</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>300300003</v>
+        <v>300300004</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>300300004</v>
+        <v>300300101</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>300300101</v>
+        <v>300300102</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68">
-        <v>300300102</v>
+      <c r="A68" s="1">
+        <v>300300201</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-      <c r="C68" t="s">
-        <v>72</v>
+      <c r="C68" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>300300201</v>
+        <v>300400000</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>300400000</v>
+      <c r="A70">
+        <v>300400001</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>74</v>
+      <c r="C70" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>300400001</v>
+        <v>300400002</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>300400002</v>
+        <v>300400003</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>300400003</v>
+        <v>300400004</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>300400004</v>
+        <v>300400005</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>300400005</v>
+        <v>300400101</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>300400101</v>
+        <v>300400102</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77">
-        <v>300400102</v>
+      <c r="A77" s="1">
+        <v>300400201</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-      <c r="C77" t="s">
-        <v>81</v>
+      <c r="C77" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>300400201</v>
+        <v>300500000</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>300500000</v>
+        <v>300500001</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>83</v>
+      <c r="C79" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>300500001</v>
+        <v>300500002</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>300500002</v>
+        <v>300500003</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>300500003</v>
+        <v>300500004</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>300500004</v>
+      <c r="A83">
+        <v>300500101</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>300500101</v>
+        <v>300500102</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85">
-        <v>300500102</v>
+      <c r="A85" s="1">
+        <v>300500201</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
-      <c r="C85" t="s">
-        <v>89</v>
+      <c r="C85" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>300500201</v>
+        <v>300600000</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>300600000</v>
+        <v>300600001</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>91</v>
+      <c r="C87" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>300600001</v>
+        <v>300600002</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>300600002</v>
+        <v>300600003</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>300600003</v>
+        <v>300600004</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>300600004</v>
+        <v>300600005</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>300600005</v>
+      <c r="A92">
+        <v>300600101</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>300600101</v>
+        <v>300600102</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94">
-        <v>300600102</v>
+      <c r="A94" s="1">
+        <v>300600201</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
-      <c r="C94" t="s">
-        <v>81</v>
+      <c r="C94" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>300600201</v>
+        <v>300700000</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>300700000</v>
+        <v>300700001</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>98</v>
+      <c r="C96" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>300700001</v>
+        <v>300700002</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>300700002</v>
+        <v>300700003</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>300700003</v>
+        <v>300700004</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>300700004</v>
+      <c r="A100">
+        <v>300700101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>300700101</v>
+        <v>300700102</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102">
-        <v>300700102</v>
+      <c r="A102" s="1">
+        <v>300700201</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-      <c r="C102" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>300700201</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>105</v>
       </c>
     </row>
+    <row r="119" ht="12" customHeight="1"/>
     <row r="120" ht="12" customHeight="1"/>
     <row r="121" ht="12" customHeight="1"/>
     <row r="122" ht="12" customHeight="1"/>
@@ -2469,7 +2459,6 @@
     <row r="125" ht="12" customHeight="1"/>
     <row r="126" ht="12" customHeight="1"/>
     <row r="127" ht="12" customHeight="1"/>
-    <row r="128" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
